--- a/output/SOAP_trial.xlsx
+++ b/output/SOAP_trial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pth7\Documents\Intercrop JLJ\2025_winter\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DE07FA-D688-496A-92EB-E12C39CFCED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DF285-0002-4063-9C09-6A5E9A175EDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="0" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{3BFDB69C-8432-4A14-9E0C-8B2AAE9D69AC}"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="23280" windowHeight="13200" activeTab="1" xr2:uid="{3BFDB69C-8432-4A14-9E0C-8B2AAE9D69AC}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="headrow_header" sheetId="8" r:id="rId5"/>
     <sheet name="trial_upload" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">map!$AL$2:$BU$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56525,10 +56528,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E743CBB8-87DD-48E5-A109-85FC29C983DC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:BU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+    <sheetView topLeftCell="AL1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59654,6 +59660,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="37" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
